--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-title-type-vs.xlsx
+++ b/ValueSet-title-type-vs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
